--- a/goose pixel.xlsx
+++ b/goose pixel.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gun\00Permanent\Edu_KMUTT\2563_1\CPE223\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C63A6-0041-46F3-A5A9-5313BF7CA97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD60FA35-0475-41F6-B704-786FE05EBC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="14027" activeTab="3" xr2:uid="{E86644CB-AB6E-49D3-81AD-59B0EC0CDCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="14027" xr2:uid="{E86644CB-AB6E-49D3-81AD-59B0EC0CDCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Goose" sheetId="1" r:id="rId1"/>
     <sheet name="Goose_Fly" sheetId="4" r:id="rId2"/>
     <sheet name="Goose_slide" sheetId="3" r:id="rId3"/>
-    <sheet name="Temp (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Bean" sheetId="5" r:id="rId4"/>
     <sheet name="Temp" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -184,16 +184,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>214825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12411</xdr:rowOff>
+      <xdr:col>199</xdr:col>
+      <xdr:colOff>177195</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>31227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>59265</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>12411</xdr:rowOff>
+      <xdr:col>253</xdr:col>
+      <xdr:colOff>21635</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>31226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -224,8 +224,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13534029" y="581068"/>
-          <a:ext cx="11445037" cy="15164179"/>
+          <a:off x="21701344" y="2665300"/>
+          <a:ext cx="11020440" cy="15051852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -246,16 +246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>151189</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>75595</xdr:rowOff>
+      <xdr:col>207</xdr:col>
+      <xdr:colOff>132375</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>19152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>118</xdr:col>
-      <xdr:colOff>210458</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>75594</xdr:rowOff>
+      <xdr:col>260</xdr:col>
+      <xdr:colOff>191642</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>19149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -285,8 +285,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13909523" y="1345595"/>
-          <a:ext cx="11277601" cy="14514285"/>
+          <a:off x="23312226" y="2653225"/>
+          <a:ext cx="11028305" cy="15051850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,1185 +1187,1185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F4209D-C465-4467-A622-2B026D75B133}">
-  <dimension ref="F19:BI81"/>
+  <dimension ref="CW319:EZ381"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="EN45" sqref="EN45"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="NW353" sqref="NW353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="61" max="61" width="2.77734375" style="1"/>
+    <col min="156" max="156" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-    </row>
-    <row r="20" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-    </row>
-    <row r="21" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-    </row>
-    <row r="22" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-    </row>
-    <row r="23" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-    </row>
-    <row r="24" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-    </row>
-    <row r="25" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-    </row>
-    <row r="26" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="2"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-    </row>
-    <row r="27" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="6"/>
-      <c r="AT27" s="2"/>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-    </row>
-    <row r="28" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-    </row>
-    <row r="29" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-    </row>
-    <row r="30" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-    </row>
-    <row r="31" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-    </row>
-    <row r="32" spans="34:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-    </row>
-    <row r="33" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-    </row>
-    <row r="34" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-    </row>
-    <row r="35" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-    </row>
-    <row r="36" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-    </row>
-    <row r="37" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-    </row>
-    <row r="38" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-    </row>
-    <row r="39" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-    </row>
-    <row r="40" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-    </row>
-    <row r="41" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-    </row>
-    <row r="42" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-    </row>
-    <row r="43" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-    </row>
-    <row r="44" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6"/>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
-    </row>
-    <row r="45" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
-    </row>
-    <row r="46" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
-    </row>
-    <row r="47" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="6"/>
-      <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
-    </row>
-    <row r="48" spans="6:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6"/>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
-    </row>
-    <row r="49" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
-      <c r="AH49" s="6"/>
-      <c r="AI49" s="6"/>
-      <c r="AJ49" s="6"/>
-      <c r="AK49" s="6"/>
-      <c r="AL49" s="6"/>
-      <c r="AM49" s="6"/>
-      <c r="AN49" s="4"/>
-      <c r="AO49" s="4"/>
-    </row>
-    <row r="50" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="4"/>
-      <c r="AO50" s="4"/>
-    </row>
-    <row r="51" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
-      <c r="AH51" s="6"/>
-      <c r="AI51" s="6"/>
-      <c r="AJ51" s="6"/>
-      <c r="AK51" s="6"/>
-      <c r="AL51" s="6"/>
-      <c r="AM51" s="6"/>
-      <c r="AN51" s="4"/>
-      <c r="AO51" s="4"/>
-      <c r="AP51" s="4"/>
-      <c r="AQ51" s="4"/>
-    </row>
-    <row r="52" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
-      <c r="AH52" s="6"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="6"/>
-      <c r="AK52" s="6"/>
-      <c r="AL52" s="6"/>
-      <c r="AM52" s="6"/>
-      <c r="AN52" s="4"/>
-      <c r="AO52" s="4"/>
-      <c r="AP52" s="4"/>
-      <c r="AQ52" s="4"/>
-    </row>
-    <row r="53" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="4" t="s">
+    <row r="319" spans="135:142" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EE319" s="6"/>
+      <c r="EF319" s="6"/>
+      <c r="EG319" s="6"/>
+      <c r="EH319" s="6"/>
+      <c r="EI319" s="6"/>
+      <c r="EJ319" s="6"/>
+      <c r="EK319" s="6"/>
+      <c r="EL319" s="6"/>
+    </row>
+    <row r="320" spans="135:142" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EE320" s="6"/>
+      <c r="EF320" s="6"/>
+      <c r="EG320" s="6"/>
+      <c r="EH320" s="6"/>
+      <c r="EI320" s="6"/>
+      <c r="EJ320" s="6"/>
+      <c r="EK320" s="6"/>
+      <c r="EL320" s="6"/>
+    </row>
+    <row r="321" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EC321" s="6"/>
+      <c r="ED321" s="6"/>
+      <c r="EE321" s="6"/>
+      <c r="EF321" s="6"/>
+      <c r="EG321" s="6"/>
+      <c r="EH321" s="6"/>
+      <c r="EI321" s="6"/>
+      <c r="EJ321" s="6"/>
+      <c r="EK321" s="6"/>
+      <c r="EL321" s="6"/>
+    </row>
+    <row r="322" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EC322" s="6"/>
+      <c r="ED322" s="6"/>
+      <c r="EE322" s="6"/>
+      <c r="EF322" s="6"/>
+      <c r="EG322" s="6"/>
+      <c r="EH322" s="6"/>
+      <c r="EI322" s="1"/>
+      <c r="EJ322" s="1"/>
+      <c r="EK322" s="6"/>
+      <c r="EL322" s="6"/>
+      <c r="EM322" s="2"/>
+      <c r="EN322" s="2"/>
+    </row>
+    <row r="323" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EC323" s="6"/>
+      <c r="ED323" s="6"/>
+      <c r="EE323" s="6"/>
+      <c r="EF323" s="6"/>
+      <c r="EG323" s="6"/>
+      <c r="EH323" s="6"/>
+      <c r="EI323" s="1"/>
+      <c r="EJ323" s="1"/>
+      <c r="EK323" s="6"/>
+      <c r="EL323" s="6"/>
+      <c r="EM323" s="2"/>
+      <c r="EN323" s="2"/>
+    </row>
+    <row r="324" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EC324" s="6"/>
+      <c r="ED324" s="6"/>
+      <c r="EE324" s="6"/>
+      <c r="EF324" s="6"/>
+      <c r="EG324" s="6"/>
+      <c r="EH324" s="6"/>
+      <c r="EI324" s="6"/>
+      <c r="EJ324" s="6"/>
+      <c r="EK324" s="6"/>
+      <c r="EL324" s="6"/>
+      <c r="EM324" s="2"/>
+      <c r="EN324" s="2"/>
+      <c r="EO324" s="2"/>
+      <c r="EP324" s="2"/>
+    </row>
+    <row r="325" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EC325" s="6"/>
+      <c r="ED325" s="6"/>
+      <c r="EE325" s="6"/>
+      <c r="EF325" s="6"/>
+      <c r="EG325" s="6"/>
+      <c r="EH325" s="6"/>
+      <c r="EI325" s="6"/>
+      <c r="EJ325" s="6"/>
+      <c r="EK325" s="6"/>
+      <c r="EL325" s="6"/>
+      <c r="EM325" s="2"/>
+      <c r="EN325" s="2"/>
+      <c r="EO325" s="2"/>
+      <c r="EP325" s="2"/>
+    </row>
+    <row r="326" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EA326" s="6"/>
+      <c r="EB326" s="6"/>
+      <c r="EC326" s="6"/>
+      <c r="ED326" s="6"/>
+      <c r="EE326" s="6"/>
+      <c r="EF326" s="6"/>
+      <c r="EG326" s="6"/>
+      <c r="EH326" s="6"/>
+      <c r="EI326" s="6"/>
+      <c r="EJ326" s="6"/>
+      <c r="EK326" s="2"/>
+      <c r="EL326" s="2"/>
+      <c r="EM326" s="2"/>
+      <c r="EN326" s="2"/>
+      <c r="EO326" s="2"/>
+      <c r="EP326" s="2"/>
+      <c r="EQ326" s="2"/>
+      <c r="ER326" s="2"/>
+    </row>
+    <row r="327" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EA327" s="6"/>
+      <c r="EB327" s="6"/>
+      <c r="EC327" s="6"/>
+      <c r="ED327" s="6"/>
+      <c r="EE327" s="6"/>
+      <c r="EF327" s="6"/>
+      <c r="EG327" s="6"/>
+      <c r="EH327" s="6"/>
+      <c r="EI327" s="6"/>
+      <c r="EJ327" s="6"/>
+      <c r="EK327" s="2"/>
+      <c r="EL327" s="2"/>
+      <c r="EM327" s="2"/>
+      <c r="EN327" s="2"/>
+      <c r="EO327" s="2"/>
+      <c r="EP327" s="2"/>
+      <c r="EQ327" s="2"/>
+      <c r="ER327" s="2"/>
+    </row>
+    <row r="328" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DY328" s="6"/>
+      <c r="DZ328" s="6"/>
+      <c r="EA328" s="6"/>
+      <c r="EB328" s="6"/>
+      <c r="EC328" s="6"/>
+      <c r="ED328" s="6"/>
+      <c r="EE328" s="6"/>
+      <c r="EF328" s="6"/>
+      <c r="EG328" s="4"/>
+      <c r="EH328" s="4"/>
+      <c r="EI328" s="4"/>
+      <c r="EJ328" s="4"/>
+      <c r="EK328" s="3"/>
+      <c r="EL328" s="3"/>
+      <c r="EM328" s="3"/>
+      <c r="EN328" s="3"/>
+      <c r="EO328" s="3"/>
+      <c r="EP328" s="3"/>
+      <c r="EQ328" s="3"/>
+      <c r="ER328" s="3"/>
+      <c r="ES328" s="3"/>
+      <c r="ET328" s="3"/>
+    </row>
+    <row r="329" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DY329" s="6"/>
+      <c r="DZ329" s="6"/>
+      <c r="EA329" s="6"/>
+      <c r="EB329" s="6"/>
+      <c r="EC329" s="6"/>
+      <c r="ED329" s="6"/>
+      <c r="EE329" s="6"/>
+      <c r="EF329" s="6"/>
+      <c r="EG329" s="4"/>
+      <c r="EH329" s="4"/>
+      <c r="EI329" s="4"/>
+      <c r="EJ329" s="4"/>
+      <c r="EK329" s="3"/>
+      <c r="EL329" s="3"/>
+      <c r="EM329" s="3"/>
+      <c r="EN329" s="3"/>
+      <c r="EO329" s="3"/>
+      <c r="EP329" s="3"/>
+      <c r="EQ329" s="3"/>
+      <c r="ER329" s="3"/>
+      <c r="ES329" s="3"/>
+      <c r="ET329" s="3"/>
+    </row>
+    <row r="330" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DY330" s="6"/>
+      <c r="DZ330" s="6"/>
+      <c r="EA330" s="6"/>
+      <c r="EB330" s="6"/>
+      <c r="EC330" s="6"/>
+      <c r="ED330" s="6"/>
+      <c r="EE330" s="6"/>
+      <c r="EF330" s="4"/>
+      <c r="EG330" s="5"/>
+      <c r="EH330" s="5"/>
+      <c r="EI330" s="5"/>
+      <c r="EJ330" s="5"/>
+    </row>
+    <row r="331" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DY331" s="6"/>
+      <c r="DZ331" s="6"/>
+      <c r="EA331" s="6"/>
+      <c r="EB331" s="6"/>
+      <c r="EC331" s="6"/>
+      <c r="ED331" s="6"/>
+      <c r="EE331" s="4"/>
+      <c r="EF331" s="4"/>
+    </row>
+    <row r="332" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DY332" s="6"/>
+      <c r="DZ332" s="6"/>
+      <c r="EA332" s="6"/>
+      <c r="EB332" s="6"/>
+      <c r="EC332" s="6"/>
+      <c r="ED332" s="6"/>
+      <c r="EE332" s="4"/>
+      <c r="EF332" s="4"/>
+    </row>
+    <row r="333" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DW333" s="6"/>
+      <c r="DX333" s="6"/>
+      <c r="DY333" s="6"/>
+      <c r="DZ333" s="6"/>
+      <c r="EA333" s="6"/>
+      <c r="EB333" s="6"/>
+      <c r="EC333" s="4"/>
+      <c r="ED333" s="4"/>
+    </row>
+    <row r="334" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DW334" s="6"/>
+      <c r="DX334" s="6"/>
+      <c r="DY334" s="6"/>
+      <c r="DZ334" s="6"/>
+      <c r="EA334" s="6"/>
+      <c r="EB334" s="6"/>
+      <c r="EC334" s="4"/>
+      <c r="ED334" s="4"/>
+    </row>
+    <row r="335" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DW335" s="6"/>
+      <c r="DX335" s="6"/>
+      <c r="DY335" s="6"/>
+      <c r="DZ335" s="6"/>
+      <c r="EA335" s="4"/>
+      <c r="EB335" s="4"/>
+    </row>
+    <row r="336" spans="127:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DW336" s="6"/>
+      <c r="DX336" s="6"/>
+      <c r="DY336" s="6"/>
+      <c r="DZ336" s="6"/>
+      <c r="EA336" s="4"/>
+      <c r="EB336" s="4"/>
+    </row>
+    <row r="337" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DW337" s="6"/>
+      <c r="DX337" s="6"/>
+      <c r="DY337" s="6"/>
+      <c r="DZ337" s="6"/>
+      <c r="EA337" s="4"/>
+      <c r="EB337" s="4"/>
+    </row>
+    <row r="338" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DW338" s="6"/>
+      <c r="DX338" s="6"/>
+      <c r="DY338" s="6"/>
+      <c r="DZ338" s="6"/>
+      <c r="EA338" s="4"/>
+      <c r="EB338" s="4"/>
+    </row>
+    <row r="339" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DW339" s="6"/>
+      <c r="DX339" s="6"/>
+      <c r="DY339" s="6"/>
+      <c r="DZ339" s="6"/>
+      <c r="EA339" s="4"/>
+      <c r="EB339" s="4"/>
+    </row>
+    <row r="340" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DU340" s="6"/>
+      <c r="DV340" s="6"/>
+      <c r="DW340" s="6"/>
+      <c r="DX340" s="6"/>
+      <c r="DY340" s="6"/>
+      <c r="DZ340" s="6"/>
+      <c r="EA340" s="4"/>
+      <c r="EB340" s="4"/>
+    </row>
+    <row r="341" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DU341" s="6"/>
+      <c r="DV341" s="6"/>
+      <c r="DW341" s="6"/>
+      <c r="DX341" s="6"/>
+      <c r="DY341" s="6"/>
+      <c r="DZ341" s="6"/>
+      <c r="EA341" s="4"/>
+      <c r="EB341" s="4"/>
+    </row>
+    <row r="342" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DN342" s="6"/>
+      <c r="DO342" s="6"/>
+      <c r="DP342" s="6"/>
+      <c r="DQ342" s="6"/>
+      <c r="DR342" s="6"/>
+      <c r="DS342" s="6"/>
+      <c r="DT342" s="6"/>
+      <c r="DU342" s="6"/>
+      <c r="DV342" s="6"/>
+      <c r="DW342" s="6"/>
+      <c r="DX342" s="6"/>
+      <c r="DY342" s="6"/>
+      <c r="DZ342" s="6"/>
+      <c r="EA342" s="4"/>
+      <c r="EB342" s="4"/>
+    </row>
+    <row r="343" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DN343" s="6"/>
+      <c r="DO343" s="6"/>
+      <c r="DP343" s="6"/>
+      <c r="DQ343" s="6"/>
+      <c r="DR343" s="6"/>
+      <c r="DS343" s="6"/>
+      <c r="DT343" s="6"/>
+      <c r="DU343" s="6"/>
+      <c r="DV343" s="6"/>
+      <c r="DW343" s="6"/>
+      <c r="DX343" s="6"/>
+      <c r="DY343" s="6"/>
+      <c r="DZ343" s="6"/>
+      <c r="EA343" s="4"/>
+      <c r="EB343" s="4"/>
+    </row>
+    <row r="344" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW344" s="6"/>
+      <c r="CX344" s="6"/>
+      <c r="DJ344" s="6"/>
+      <c r="DK344" s="6"/>
+      <c r="DL344" s="6"/>
+      <c r="DM344" s="6"/>
+      <c r="DN344" s="6"/>
+      <c r="DO344" s="6"/>
+      <c r="DP344" s="6"/>
+      <c r="DQ344" s="6"/>
+      <c r="DR344" s="6"/>
+      <c r="DS344" s="6"/>
+      <c r="DT344" s="6"/>
+      <c r="DU344" s="6"/>
+      <c r="DV344" s="6"/>
+      <c r="DW344" s="6"/>
+      <c r="DX344" s="6"/>
+      <c r="DY344" s="6"/>
+      <c r="DZ344" s="6"/>
+      <c r="EA344" s="6"/>
+      <c r="EB344" s="6"/>
+      <c r="EC344" s="4"/>
+      <c r="ED344" s="4"/>
+    </row>
+    <row r="345" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW345" s="6"/>
+      <c r="CX345" s="6"/>
+      <c r="DJ345" s="6"/>
+      <c r="DK345" s="6"/>
+      <c r="DL345" s="6"/>
+      <c r="DM345" s="6"/>
+      <c r="DN345" s="6"/>
+      <c r="DO345" s="6"/>
+      <c r="DP345" s="6"/>
+      <c r="DQ345" s="6"/>
+      <c r="DR345" s="6"/>
+      <c r="DS345" s="6"/>
+      <c r="DT345" s="6"/>
+      <c r="DU345" s="6"/>
+      <c r="DV345" s="6"/>
+      <c r="DW345" s="6"/>
+      <c r="DX345" s="6"/>
+      <c r="DY345" s="6"/>
+      <c r="DZ345" s="6"/>
+      <c r="EA345" s="6"/>
+      <c r="EB345" s="6"/>
+      <c r="EC345" s="4"/>
+      <c r="ED345" s="4"/>
+    </row>
+    <row r="346" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW346" s="6"/>
+      <c r="CX346" s="6"/>
+      <c r="DJ346" s="6"/>
+      <c r="DK346" s="6"/>
+      <c r="DL346" s="6"/>
+      <c r="DM346" s="6"/>
+      <c r="DN346" s="6"/>
+      <c r="DO346" s="6"/>
+      <c r="DP346" s="6"/>
+      <c r="DQ346" s="6"/>
+      <c r="DR346" s="6"/>
+      <c r="DS346" s="6"/>
+      <c r="DT346" s="6"/>
+      <c r="DU346" s="6"/>
+      <c r="DV346" s="6"/>
+      <c r="DW346" s="6"/>
+      <c r="DX346" s="6"/>
+      <c r="DY346" s="6"/>
+      <c r="DZ346" s="6"/>
+      <c r="EA346" s="6"/>
+      <c r="EB346" s="6"/>
+      <c r="EC346" s="4"/>
+      <c r="ED346" s="4"/>
+    </row>
+    <row r="347" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW347" s="6"/>
+      <c r="CX347" s="6"/>
+      <c r="CY347" s="6"/>
+      <c r="CZ347" s="6"/>
+      <c r="DA347" s="6"/>
+      <c r="DF347" s="6"/>
+      <c r="DG347" s="6"/>
+      <c r="DH347" s="6"/>
+      <c r="DI347" s="6"/>
+      <c r="DJ347" s="6"/>
+      <c r="DK347" s="6"/>
+      <c r="DL347" s="6"/>
+      <c r="DM347" s="6"/>
+      <c r="DN347" s="6"/>
+      <c r="DO347" s="6"/>
+      <c r="DP347" s="6"/>
+      <c r="DQ347" s="6"/>
+      <c r="DR347" s="6"/>
+      <c r="DS347" s="6"/>
+      <c r="DT347" s="6"/>
+      <c r="DU347" s="6"/>
+      <c r="DV347" s="6"/>
+      <c r="DW347" s="6"/>
+      <c r="DX347" s="6"/>
+      <c r="DY347" s="6"/>
+      <c r="DZ347" s="6"/>
+      <c r="EA347" s="6"/>
+      <c r="EB347" s="6"/>
+      <c r="EC347" s="4"/>
+      <c r="ED347" s="4"/>
+    </row>
+    <row r="348" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW348" s="6"/>
+      <c r="CX348" s="6"/>
+      <c r="CY348" s="6"/>
+      <c r="CZ348" s="6"/>
+      <c r="DA348" s="6"/>
+      <c r="DF348" s="6"/>
+      <c r="DG348" s="6"/>
+      <c r="DH348" s="6"/>
+      <c r="DI348" s="6"/>
+      <c r="DJ348" s="6"/>
+      <c r="DK348" s="6"/>
+      <c r="DL348" s="6"/>
+      <c r="DM348" s="6"/>
+      <c r="DN348" s="6"/>
+      <c r="DO348" s="6"/>
+      <c r="DP348" s="6"/>
+      <c r="DQ348" s="6"/>
+      <c r="DR348" s="6"/>
+      <c r="DS348" s="6"/>
+      <c r="DT348" s="6"/>
+      <c r="DU348" s="6"/>
+      <c r="DV348" s="6"/>
+      <c r="DW348" s="6"/>
+      <c r="DX348" s="6"/>
+      <c r="DY348" s="6"/>
+      <c r="DZ348" s="6"/>
+      <c r="EA348" s="6"/>
+      <c r="EB348" s="6"/>
+      <c r="EC348" s="4"/>
+      <c r="ED348" s="4"/>
+    </row>
+    <row r="349" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW349" s="6"/>
+      <c r="CX349" s="6"/>
+      <c r="CY349" s="6"/>
+      <c r="CZ349" s="6"/>
+      <c r="DA349" s="6"/>
+      <c r="DB349" s="6"/>
+      <c r="DC349" s="6"/>
+      <c r="DD349" s="6"/>
+      <c r="DE349" s="6"/>
+      <c r="DF349" s="6"/>
+      <c r="DG349" s="6"/>
+      <c r="DH349" s="6"/>
+      <c r="DI349" s="6"/>
+      <c r="DJ349" s="6"/>
+      <c r="DK349" s="6"/>
+      <c r="DL349" s="6"/>
+      <c r="DM349" s="6"/>
+      <c r="DN349" s="6"/>
+      <c r="DO349" s="6"/>
+      <c r="DP349" s="6"/>
+      <c r="DQ349" s="6"/>
+      <c r="DR349" s="6"/>
+      <c r="DS349" s="6"/>
+      <c r="DT349" s="6"/>
+      <c r="DU349" s="6"/>
+      <c r="DV349" s="6"/>
+      <c r="DW349" s="6"/>
+      <c r="DX349" s="6"/>
+      <c r="DY349" s="6"/>
+      <c r="DZ349" s="6"/>
+      <c r="EA349" s="6"/>
+      <c r="EB349" s="6"/>
+      <c r="EC349" s="6"/>
+      <c r="ED349" s="6"/>
+      <c r="EE349" s="4"/>
+      <c r="EF349" s="4"/>
+    </row>
+    <row r="350" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW350" s="6"/>
+      <c r="CX350" s="6"/>
+      <c r="CY350" s="6"/>
+      <c r="CZ350" s="6"/>
+      <c r="DA350" s="6"/>
+      <c r="DB350" s="6"/>
+      <c r="DC350" s="6"/>
+      <c r="DD350" s="6"/>
+      <c r="DE350" s="6"/>
+      <c r="DF350" s="6"/>
+      <c r="DG350" s="6"/>
+      <c r="DH350" s="6"/>
+      <c r="DI350" s="6"/>
+      <c r="DJ350" s="6"/>
+      <c r="DK350" s="6"/>
+      <c r="DL350" s="6"/>
+      <c r="DM350" s="6"/>
+      <c r="DN350" s="6"/>
+      <c r="DO350" s="6"/>
+      <c r="DP350" s="6"/>
+      <c r="DQ350" s="6"/>
+      <c r="DR350" s="6"/>
+      <c r="DS350" s="6"/>
+      <c r="DT350" s="6"/>
+      <c r="DU350" s="6"/>
+      <c r="DV350" s="6"/>
+      <c r="DW350" s="6"/>
+      <c r="DX350" s="6"/>
+      <c r="DY350" s="6"/>
+      <c r="DZ350" s="6"/>
+      <c r="EA350" s="6"/>
+      <c r="EB350" s="6"/>
+      <c r="EC350" s="6"/>
+      <c r="ED350" s="6"/>
+      <c r="EE350" s="4"/>
+      <c r="EF350" s="4"/>
+    </row>
+    <row r="351" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CY351" s="4"/>
+      <c r="CZ351" s="4"/>
+      <c r="DA351" s="6"/>
+      <c r="DB351" s="4"/>
+      <c r="DC351" s="4"/>
+      <c r="DD351" s="6"/>
+      <c r="DE351" s="6"/>
+      <c r="DF351" s="6"/>
+      <c r="DG351" s="6"/>
+      <c r="DH351" s="6"/>
+      <c r="DI351" s="6"/>
+      <c r="DJ351" s="6"/>
+      <c r="DK351" s="6"/>
+      <c r="DL351" s="6"/>
+      <c r="DM351" s="6"/>
+      <c r="DN351" s="6"/>
+      <c r="DO351" s="6"/>
+      <c r="DP351" s="6"/>
+      <c r="DQ351" s="6"/>
+      <c r="DR351" s="6"/>
+      <c r="DS351" s="6"/>
+      <c r="DT351" s="6"/>
+      <c r="DU351" s="6"/>
+      <c r="DV351" s="6"/>
+      <c r="DW351" s="6"/>
+      <c r="DX351" s="6"/>
+      <c r="DY351" s="6"/>
+      <c r="DZ351" s="6"/>
+      <c r="EA351" s="6"/>
+      <c r="EB351" s="6"/>
+      <c r="EC351" s="6"/>
+      <c r="ED351" s="6"/>
+      <c r="EE351" s="4"/>
+      <c r="EF351" s="4"/>
+      <c r="EG351" s="4"/>
+      <c r="EH351" s="4"/>
+    </row>
+    <row r="352" spans="101:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CY352" s="4"/>
+      <c r="CZ352" s="4"/>
+      <c r="DA352" s="6"/>
+      <c r="DB352" s="4"/>
+      <c r="DC352" s="4"/>
+      <c r="DD352" s="6"/>
+      <c r="DE352" s="6"/>
+      <c r="DF352" s="6"/>
+      <c r="DG352" s="6"/>
+      <c r="DH352" s="6"/>
+      <c r="DI352" s="6"/>
+      <c r="DJ352" s="6"/>
+      <c r="DK352" s="6"/>
+      <c r="DL352" s="6"/>
+      <c r="DM352" s="6"/>
+      <c r="DN352" s="6"/>
+      <c r="DO352" s="6"/>
+      <c r="DP352" s="6"/>
+      <c r="DQ352" s="6"/>
+      <c r="DR352" s="6"/>
+      <c r="DS352" s="6"/>
+      <c r="DT352" s="6"/>
+      <c r="DU352" s="6"/>
+      <c r="DV352" s="6"/>
+      <c r="DW352" s="6"/>
+      <c r="DX352" s="6"/>
+      <c r="DY352" s="6"/>
+      <c r="DZ352" s="6"/>
+      <c r="EA352" s="6"/>
+      <c r="EB352" s="6"/>
+      <c r="EC352" s="6"/>
+      <c r="ED352" s="6"/>
+      <c r="EE352" s="4"/>
+      <c r="EF352" s="4"/>
+      <c r="EG352" s="4"/>
+      <c r="EH352" s="4"/>
+    </row>
+    <row r="353" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CY353" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
-      <c r="AH53" s="6"/>
-      <c r="AI53" s="6"/>
-      <c r="AJ53" s="6"/>
-      <c r="AK53" s="6"/>
-      <c r="AL53" s="6"/>
-      <c r="AM53" s="6"/>
-      <c r="AN53" s="4"/>
-      <c r="AO53" s="4"/>
-      <c r="AP53" s="4"/>
-      <c r="AQ53" s="4"/>
-    </row>
-    <row r="54" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
-      <c r="AH54" s="6"/>
-      <c r="AI54" s="6"/>
-      <c r="AJ54" s="6"/>
-      <c r="AK54" s="6"/>
-      <c r="AL54" s="6"/>
-      <c r="AM54" s="6"/>
-      <c r="AN54" s="4"/>
-      <c r="AO54" s="4"/>
-      <c r="AP54" s="4"/>
-      <c r="AQ54" s="4"/>
-    </row>
-    <row r="55" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-      <c r="AA55" s="6"/>
-      <c r="AB55" s="6"/>
-      <c r="AC55" s="6"/>
-      <c r="AD55" s="6"/>
-      <c r="AE55" s="6"/>
-      <c r="AF55" s="6"/>
-      <c r="AG55" s="6"/>
-      <c r="AH55" s="6"/>
-      <c r="AI55" s="6"/>
-      <c r="AJ55" s="6"/>
-      <c r="AK55" s="6"/>
-      <c r="AL55" s="6"/>
-      <c r="AM55" s="6"/>
-      <c r="AN55" s="4"/>
-      <c r="AO55" s="4"/>
-      <c r="AP55" s="4"/>
-      <c r="AQ55" s="4"/>
-    </row>
-    <row r="56" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
-      <c r="AH56" s="6"/>
-      <c r="AI56" s="6"/>
-      <c r="AJ56" s="6"/>
-      <c r="AK56" s="6"/>
-      <c r="AL56" s="6"/>
-      <c r="AM56" s="6"/>
-      <c r="AN56" s="4"/>
-      <c r="AO56" s="4"/>
-      <c r="AP56" s="4"/>
-      <c r="AQ56" s="4"/>
-    </row>
-    <row r="57" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="6"/>
-      <c r="AD57" s="6"/>
-      <c r="AE57" s="6"/>
-      <c r="AF57" s="6"/>
-      <c r="AG57" s="6"/>
-      <c r="AH57" s="6"/>
-      <c r="AI57" s="6"/>
-      <c r="AJ57" s="6"/>
-      <c r="AK57" s="6"/>
-      <c r="AL57" s="6"/>
-      <c r="AM57" s="6"/>
-      <c r="AN57" s="4"/>
-      <c r="AO57" s="4"/>
-      <c r="AP57" s="4"/>
-      <c r="AQ57" s="4"/>
-    </row>
-    <row r="58" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-      <c r="AI58" s="6"/>
-      <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
-      <c r="AL58" s="4"/>
-      <c r="AM58" s="4"/>
-      <c r="AN58" s="4"/>
-      <c r="AO58" s="4"/>
-    </row>
-    <row r="59" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6"/>
-      <c r="AI59" s="6"/>
-      <c r="AJ59" s="6"/>
-      <c r="AK59" s="6"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
-    </row>
-    <row r="60" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="6"/>
-      <c r="AC60" s="6"/>
-      <c r="AD60" s="6"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="6"/>
-      <c r="AG60" s="6"/>
-      <c r="AH60" s="6"/>
-      <c r="AI60" s="6"/>
-      <c r="AJ60" s="4"/>
-      <c r="AK60" s="4"/>
-      <c r="AL60" s="4"/>
-      <c r="AM60" s="4"/>
-      <c r="AN60" s="4"/>
-      <c r="AO60" s="4"/>
-    </row>
-    <row r="61" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
-      <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="6"/>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="6"/>
-      <c r="AF61" s="6"/>
-      <c r="AG61" s="6"/>
-      <c r="AH61" s="6"/>
-      <c r="AI61" s="6"/>
-      <c r="AJ61" s="4"/>
-      <c r="AK61" s="4"/>
-      <c r="AL61" s="4"/>
-      <c r="AM61" s="4"/>
-      <c r="AN61" s="4"/>
-      <c r="AO61" s="4"/>
-    </row>
-    <row r="62" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
-      <c r="AA62" s="6"/>
-      <c r="AB62" s="6"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="6"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="6"/>
-      <c r="AG62" s="6"/>
-      <c r="AH62" s="6"/>
-      <c r="AI62" s="6"/>
-      <c r="AJ62" s="4"/>
-      <c r="AK62" s="4"/>
-      <c r="AL62" s="4"/>
-      <c r="AM62" s="4"/>
-      <c r="AN62" s="4"/>
-      <c r="AO62" s="4"/>
-    </row>
-    <row r="63" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="4"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-    </row>
-    <row r="64" spans="6:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="6"/>
-      <c r="AH64" s="4"/>
-      <c r="AI64" s="4"/>
-      <c r="AJ64" s="4"/>
-      <c r="AK64" s="4"/>
-      <c r="AL64" s="4"/>
-      <c r="AM64" s="4"/>
-    </row>
-    <row r="65" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-      <c r="AG65" s="4"/>
-      <c r="AH65" s="4"/>
-      <c r="AI65" s="4"/>
-    </row>
-    <row r="66" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
-      <c r="AI66" s="4"/>
-    </row>
-    <row r="67" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
-      <c r="AG67" s="4"/>
-      <c r="AH67" s="4"/>
-    </row>
-    <row r="68" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-      <c r="AG68" s="4"/>
-      <c r="AH68" s="4"/>
-    </row>
-    <row r="69" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-      <c r="AG69" s="4"/>
-      <c r="AH69" s="4"/>
-    </row>
-    <row r="70" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-    </row>
-    <row r="71" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-    </row>
-    <row r="72" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
-    </row>
-    <row r="73" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
-    </row>
-    <row r="74" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
-    </row>
-    <row r="75" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="3"/>
-    </row>
-    <row r="76" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
-      <c r="AG76" s="3"/>
-      <c r="AH76" s="3"/>
-      <c r="AI76" s="3"/>
-      <c r="AJ76" s="3"/>
-    </row>
-    <row r="77" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="AE77" s="3"/>
-      <c r="AF77" s="3"/>
-      <c r="AG77" s="3"/>
-      <c r="AH77" s="3"/>
-      <c r="AI77" s="3"/>
-      <c r="AJ77" s="3"/>
-    </row>
-    <row r="78" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="3"/>
-      <c r="AG78" s="3"/>
-      <c r="AH78" s="3"/>
-      <c r="AI78" s="3"/>
-      <c r="AJ78" s="3"/>
-    </row>
-    <row r="79" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-    </row>
-    <row r="80" spans="19:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="CZ353" s="4"/>
+      <c r="DB353" s="4"/>
+      <c r="DC353" s="4"/>
+      <c r="DD353" s="6"/>
+      <c r="DE353" s="6"/>
+      <c r="DF353" s="6"/>
+      <c r="DG353" s="6"/>
+      <c r="DH353" s="6"/>
+      <c r="DI353" s="6"/>
+      <c r="DJ353" s="6"/>
+      <c r="DK353" s="6"/>
+      <c r="DL353" s="6"/>
+      <c r="DM353" s="6"/>
+      <c r="DN353" s="6"/>
+      <c r="DO353" s="6"/>
+      <c r="DP353" s="6"/>
+      <c r="DQ353" s="6"/>
+      <c r="DR353" s="6"/>
+      <c r="DS353" s="6"/>
+      <c r="DT353" s="6"/>
+      <c r="DU353" s="6"/>
+      <c r="DV353" s="6"/>
+      <c r="DW353" s="6"/>
+      <c r="DX353" s="6"/>
+      <c r="DY353" s="6"/>
+      <c r="DZ353" s="6"/>
+      <c r="EA353" s="6"/>
+      <c r="EB353" s="6"/>
+      <c r="EC353" s="6"/>
+      <c r="ED353" s="6"/>
+      <c r="EE353" s="4"/>
+      <c r="EF353" s="4"/>
+      <c r="EG353" s="4"/>
+      <c r="EH353" s="4"/>
+    </row>
+    <row r="354" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CZ354" s="4"/>
+      <c r="DA354" s="4"/>
+      <c r="DB354" s="4"/>
+      <c r="DC354" s="4"/>
+      <c r="DD354" s="6"/>
+      <c r="DE354" s="6"/>
+      <c r="DF354" s="6"/>
+      <c r="DG354" s="6"/>
+      <c r="DH354" s="6"/>
+      <c r="DI354" s="6"/>
+      <c r="DJ354" s="6"/>
+      <c r="DK354" s="6"/>
+      <c r="DL354" s="6"/>
+      <c r="DM354" s="6"/>
+      <c r="DN354" s="6"/>
+      <c r="DO354" s="6"/>
+      <c r="DP354" s="6"/>
+      <c r="DQ354" s="6"/>
+      <c r="DR354" s="6"/>
+      <c r="DS354" s="6"/>
+      <c r="DT354" s="6"/>
+      <c r="DU354" s="6"/>
+      <c r="DV354" s="6"/>
+      <c r="DW354" s="6"/>
+      <c r="DX354" s="6"/>
+      <c r="DY354" s="6"/>
+      <c r="DZ354" s="6"/>
+      <c r="EA354" s="6"/>
+      <c r="EB354" s="6"/>
+      <c r="EC354" s="6"/>
+      <c r="ED354" s="6"/>
+      <c r="EE354" s="4"/>
+      <c r="EF354" s="4"/>
+      <c r="EG354" s="4"/>
+      <c r="EH354" s="4"/>
+    </row>
+    <row r="355" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CZ355" s="4"/>
+      <c r="DA355" s="4"/>
+      <c r="DB355" s="4"/>
+      <c r="DC355" s="4"/>
+      <c r="DD355" s="6"/>
+      <c r="DE355" s="6"/>
+      <c r="DF355" s="6"/>
+      <c r="DG355" s="6"/>
+      <c r="DH355" s="6"/>
+      <c r="DI355" s="6"/>
+      <c r="DJ355" s="6"/>
+      <c r="DK355" s="6"/>
+      <c r="DL355" s="6"/>
+      <c r="DM355" s="6"/>
+      <c r="DN355" s="6"/>
+      <c r="DO355" s="6"/>
+      <c r="DP355" s="6"/>
+      <c r="DQ355" s="6"/>
+      <c r="DR355" s="6"/>
+      <c r="DS355" s="6"/>
+      <c r="DT355" s="6"/>
+      <c r="DU355" s="6"/>
+      <c r="DV355" s="6"/>
+      <c r="DW355" s="6"/>
+      <c r="DX355" s="6"/>
+      <c r="DY355" s="6"/>
+      <c r="DZ355" s="6"/>
+      <c r="EA355" s="6"/>
+      <c r="EB355" s="6"/>
+      <c r="EC355" s="6"/>
+      <c r="ED355" s="6"/>
+      <c r="EE355" s="4"/>
+      <c r="EF355" s="4"/>
+      <c r="EG355" s="4"/>
+      <c r="EH355" s="4"/>
+    </row>
+    <row r="356" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DB356" s="4"/>
+      <c r="DC356" s="4"/>
+      <c r="DD356" s="4"/>
+      <c r="DE356" s="4"/>
+      <c r="DF356" s="4"/>
+      <c r="DG356" s="4"/>
+      <c r="DH356" s="6"/>
+      <c r="DI356" s="6"/>
+      <c r="DJ356" s="6"/>
+      <c r="DK356" s="6"/>
+      <c r="DL356" s="6"/>
+      <c r="DM356" s="6"/>
+      <c r="DN356" s="6"/>
+      <c r="DO356" s="6"/>
+      <c r="DP356" s="6"/>
+      <c r="DQ356" s="6"/>
+      <c r="DR356" s="4"/>
+      <c r="DS356" s="4"/>
+      <c r="DT356" s="6"/>
+      <c r="DU356" s="6"/>
+      <c r="DV356" s="6"/>
+      <c r="DW356" s="6"/>
+      <c r="DX356" s="6"/>
+      <c r="DY356" s="6"/>
+      <c r="DZ356" s="6"/>
+      <c r="EA356" s="6"/>
+      <c r="EB356" s="6"/>
+      <c r="EC356" s="6"/>
+      <c r="ED356" s="6"/>
+      <c r="EE356" s="4"/>
+      <c r="EF356" s="4"/>
+      <c r="EG356" s="4"/>
+      <c r="EH356" s="4"/>
+    </row>
+    <row r="357" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DB357" s="4"/>
+      <c r="DC357" s="4"/>
+      <c r="DD357" s="4"/>
+      <c r="DE357" s="4"/>
+      <c r="DF357" s="4"/>
+      <c r="DG357" s="4"/>
+      <c r="DH357" s="6"/>
+      <c r="DI357" s="6"/>
+      <c r="DJ357" s="6"/>
+      <c r="DK357" s="6"/>
+      <c r="DL357" s="6"/>
+      <c r="DM357" s="6"/>
+      <c r="DN357" s="6"/>
+      <c r="DO357" s="6"/>
+      <c r="DP357" s="6"/>
+      <c r="DQ357" s="6"/>
+      <c r="DR357" s="4"/>
+      <c r="DS357" s="4"/>
+      <c r="DT357" s="6"/>
+      <c r="DU357" s="6"/>
+      <c r="DV357" s="6"/>
+      <c r="DW357" s="6"/>
+      <c r="DX357" s="6"/>
+      <c r="DY357" s="6"/>
+      <c r="DZ357" s="6"/>
+      <c r="EA357" s="6"/>
+      <c r="EB357" s="6"/>
+      <c r="EC357" s="6"/>
+      <c r="ED357" s="6"/>
+      <c r="EE357" s="4"/>
+      <c r="EF357" s="4"/>
+      <c r="EG357" s="4"/>
+      <c r="EH357" s="4"/>
+    </row>
+    <row r="358" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DD358" s="4"/>
+      <c r="DE358" s="4"/>
+      <c r="DF358" s="6"/>
+      <c r="DG358" s="6"/>
+      <c r="DH358" s="6"/>
+      <c r="DI358" s="6"/>
+      <c r="DJ358" s="6"/>
+      <c r="DK358" s="6"/>
+      <c r="DL358" s="6"/>
+      <c r="DM358" s="6"/>
+      <c r="DN358" s="6"/>
+      <c r="DO358" s="6"/>
+      <c r="DP358" s="4"/>
+      <c r="DQ358" s="4"/>
+      <c r="DR358" s="6"/>
+      <c r="DS358" s="6"/>
+      <c r="DT358" s="6"/>
+      <c r="DU358" s="6"/>
+      <c r="DV358" s="6"/>
+      <c r="DW358" s="6"/>
+      <c r="DX358" s="6"/>
+      <c r="DY358" s="6"/>
+      <c r="DZ358" s="6"/>
+      <c r="EA358" s="6"/>
+      <c r="EB358" s="6"/>
+      <c r="EC358" s="4"/>
+      <c r="ED358" s="4"/>
+      <c r="EE358" s="4"/>
+      <c r="EF358" s="4"/>
+    </row>
+    <row r="359" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DD359" s="4"/>
+      <c r="DE359" s="4"/>
+      <c r="DF359" s="6"/>
+      <c r="DG359" s="6"/>
+      <c r="DH359" s="6"/>
+      <c r="DI359" s="6"/>
+      <c r="DJ359" s="6"/>
+      <c r="DK359" s="6"/>
+      <c r="DL359" s="6"/>
+      <c r="DM359" s="6"/>
+      <c r="DN359" s="6"/>
+      <c r="DO359" s="6"/>
+      <c r="DP359" s="4"/>
+      <c r="DQ359" s="4"/>
+      <c r="DR359" s="6"/>
+      <c r="DS359" s="6"/>
+      <c r="DT359" s="6"/>
+      <c r="DU359" s="6"/>
+      <c r="DV359" s="6"/>
+      <c r="DW359" s="6"/>
+      <c r="DX359" s="6"/>
+      <c r="DY359" s="6"/>
+      <c r="DZ359" s="6"/>
+      <c r="EA359" s="6"/>
+      <c r="EB359" s="6"/>
+      <c r="EC359" s="4"/>
+      <c r="ED359" s="4"/>
+      <c r="EE359" s="4"/>
+      <c r="EF359" s="4"/>
+    </row>
+    <row r="360" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DF360" s="4"/>
+      <c r="DG360" s="4"/>
+      <c r="DH360" s="6"/>
+      <c r="DI360" s="6"/>
+      <c r="DJ360" s="6"/>
+      <c r="DK360" s="6"/>
+      <c r="DL360" s="6"/>
+      <c r="DM360" s="6"/>
+      <c r="DN360" s="4"/>
+      <c r="DO360" s="4"/>
+      <c r="DP360" s="6"/>
+      <c r="DQ360" s="6"/>
+      <c r="DR360" s="6"/>
+      <c r="DS360" s="6"/>
+      <c r="DT360" s="6"/>
+      <c r="DU360" s="6"/>
+      <c r="DV360" s="6"/>
+      <c r="DW360" s="6"/>
+      <c r="DX360" s="6"/>
+      <c r="DY360" s="6"/>
+      <c r="DZ360" s="6"/>
+      <c r="EA360" s="4"/>
+      <c r="EB360" s="4"/>
+      <c r="EC360" s="4"/>
+      <c r="ED360" s="4"/>
+      <c r="EE360" s="4"/>
+      <c r="EF360" s="4"/>
+    </row>
+    <row r="361" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DF361" s="4"/>
+      <c r="DG361" s="4"/>
+      <c r="DH361" s="6"/>
+      <c r="DI361" s="6"/>
+      <c r="DJ361" s="6"/>
+      <c r="DK361" s="6"/>
+      <c r="DL361" s="6"/>
+      <c r="DM361" s="6"/>
+      <c r="DN361" s="4"/>
+      <c r="DO361" s="4"/>
+      <c r="DP361" s="6"/>
+      <c r="DQ361" s="6"/>
+      <c r="DR361" s="6"/>
+      <c r="DS361" s="6"/>
+      <c r="DT361" s="6"/>
+      <c r="DU361" s="6"/>
+      <c r="DV361" s="6"/>
+      <c r="DW361" s="6"/>
+      <c r="DX361" s="6"/>
+      <c r="DY361" s="6"/>
+      <c r="DZ361" s="6"/>
+      <c r="EA361" s="4"/>
+      <c r="EB361" s="4"/>
+      <c r="EC361" s="4"/>
+      <c r="ED361" s="4"/>
+      <c r="EE361" s="4"/>
+      <c r="EF361" s="4"/>
+    </row>
+    <row r="362" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DF362" s="4"/>
+      <c r="DG362" s="4"/>
+      <c r="DH362" s="6"/>
+      <c r="DI362" s="6"/>
+      <c r="DJ362" s="6"/>
+      <c r="DK362" s="6"/>
+      <c r="DL362" s="6"/>
+      <c r="DM362" s="6"/>
+      <c r="DN362" s="4"/>
+      <c r="DO362" s="4"/>
+      <c r="DP362" s="6"/>
+      <c r="DQ362" s="6"/>
+      <c r="DR362" s="6"/>
+      <c r="DS362" s="6"/>
+      <c r="DT362" s="6"/>
+      <c r="DU362" s="6"/>
+      <c r="DV362" s="6"/>
+      <c r="DW362" s="6"/>
+      <c r="DX362" s="6"/>
+      <c r="DY362" s="6"/>
+      <c r="DZ362" s="6"/>
+      <c r="EA362" s="4"/>
+      <c r="EB362" s="4"/>
+      <c r="EC362" s="4"/>
+      <c r="ED362" s="4"/>
+      <c r="EE362" s="4"/>
+      <c r="EF362" s="4"/>
+    </row>
+    <row r="363" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DH363" s="4"/>
+      <c r="DI363" s="4"/>
+      <c r="DJ363" s="4"/>
+      <c r="DK363" s="4"/>
+      <c r="DL363" s="4"/>
+      <c r="DM363" s="4"/>
+      <c r="DN363" s="4"/>
+      <c r="DO363" s="4"/>
+      <c r="DP363" s="4"/>
+      <c r="DQ363" s="4"/>
+      <c r="DR363" s="6"/>
+      <c r="DS363" s="6"/>
+      <c r="DT363" s="6"/>
+      <c r="DU363" s="6"/>
+      <c r="DV363" s="6"/>
+      <c r="DW363" s="6"/>
+      <c r="DX363" s="6"/>
+      <c r="DY363" s="4"/>
+      <c r="DZ363" s="4"/>
+      <c r="EA363" s="4"/>
+      <c r="EB363" s="4"/>
+      <c r="EC363" s="4"/>
+      <c r="ED363" s="4"/>
+    </row>
+    <row r="364" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DH364" s="4"/>
+      <c r="DI364" s="4"/>
+      <c r="DJ364" s="4"/>
+      <c r="DK364" s="4"/>
+      <c r="DL364" s="4"/>
+      <c r="DM364" s="4"/>
+      <c r="DN364" s="4"/>
+      <c r="DO364" s="4"/>
+      <c r="DP364" s="4"/>
+      <c r="DQ364" s="4"/>
+      <c r="DR364" s="6"/>
+      <c r="DS364" s="6"/>
+      <c r="DT364" s="6"/>
+      <c r="DU364" s="6"/>
+      <c r="DV364" s="6"/>
+      <c r="DW364" s="6"/>
+      <c r="DX364" s="6"/>
+      <c r="DY364" s="4"/>
+      <c r="DZ364" s="4"/>
+      <c r="EA364" s="4"/>
+      <c r="EB364" s="4"/>
+      <c r="EC364" s="4"/>
+      <c r="ED364" s="4"/>
+    </row>
+    <row r="365" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DJ365" s="4"/>
+      <c r="DK365" s="4"/>
+      <c r="DL365" s="4"/>
+      <c r="DM365" s="4"/>
+      <c r="DN365" s="6"/>
+      <c r="DO365" s="6"/>
+      <c r="DP365" s="6"/>
+      <c r="DQ365" s="6"/>
+      <c r="DR365" s="4"/>
+      <c r="DS365" s="4"/>
+      <c r="DT365" s="4"/>
+      <c r="DU365" s="4"/>
+      <c r="DV365" s="4"/>
+      <c r="DW365" s="4"/>
+      <c r="DX365" s="4"/>
+      <c r="DY365" s="4"/>
+      <c r="DZ365" s="4"/>
+    </row>
+    <row r="366" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DJ366" s="4"/>
+      <c r="DK366" s="4"/>
+      <c r="DL366" s="4"/>
+      <c r="DM366" s="4"/>
+      <c r="DN366" s="6"/>
+      <c r="DO366" s="6"/>
+      <c r="DP366" s="6"/>
+      <c r="DQ366" s="6"/>
+      <c r="DR366" s="4"/>
+      <c r="DS366" s="4"/>
+      <c r="DT366" s="4"/>
+      <c r="DU366" s="4"/>
+      <c r="DV366" s="4"/>
+      <c r="DW366" s="4"/>
+      <c r="DX366" s="4"/>
+      <c r="DY366" s="4"/>
+      <c r="DZ366" s="4"/>
+    </row>
+    <row r="367" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DJ367" s="4"/>
+      <c r="DK367" s="4"/>
+      <c r="DL367" s="6"/>
+      <c r="DM367" s="6"/>
+      <c r="DN367" s="6"/>
+      <c r="DO367" s="6"/>
+      <c r="DP367" s="6"/>
+      <c r="DQ367" s="6"/>
+      <c r="DV367" s="4"/>
+      <c r="DW367" s="4"/>
+      <c r="DX367" s="4"/>
+      <c r="DY367" s="4"/>
+    </row>
+    <row r="368" spans="103:138" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DJ368" s="4"/>
+      <c r="DK368" s="4"/>
+      <c r="DL368" s="6"/>
+      <c r="DM368" s="6"/>
+      <c r="DN368" s="6"/>
+      <c r="DO368" s="6"/>
+      <c r="DP368" s="6"/>
+      <c r="DQ368" s="6"/>
+      <c r="DV368" s="4"/>
+      <c r="DW368" s="4"/>
+      <c r="DX368" s="4"/>
+      <c r="DY368" s="4"/>
+    </row>
+    <row r="369" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DJ369" s="4"/>
+      <c r="DK369" s="4"/>
+      <c r="DL369" s="6"/>
+      <c r="DM369" s="6"/>
+      <c r="DN369" s="6"/>
+      <c r="DO369" s="6"/>
+      <c r="DP369" s="6"/>
+      <c r="DQ369" s="6"/>
+      <c r="DV369" s="4"/>
+      <c r="DW369" s="4"/>
+      <c r="DX369" s="4"/>
+      <c r="DY369" s="4"/>
+    </row>
+    <row r="370" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL370" s="4"/>
+      <c r="DM370" s="4"/>
+      <c r="DN370" s="4"/>
+      <c r="DO370" s="4"/>
+      <c r="DV370" s="4"/>
+      <c r="DW370" s="4"/>
+    </row>
+    <row r="371" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL371" s="4"/>
+      <c r="DM371" s="4"/>
+      <c r="DN371" s="4"/>
+      <c r="DO371" s="4"/>
+      <c r="DV371" s="4"/>
+      <c r="DW371" s="4"/>
+    </row>
+    <row r="372" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL372" s="3"/>
+      <c r="DM372" s="3"/>
+      <c r="DV372" s="3"/>
+      <c r="DW372" s="3"/>
+    </row>
+    <row r="373" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL373" s="3"/>
+      <c r="DM373" s="3"/>
+      <c r="DV373" s="3"/>
+      <c r="DW373" s="3"/>
+    </row>
+    <row r="374" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL374" s="2"/>
+      <c r="DM374" s="2"/>
+      <c r="DV374" s="3"/>
+      <c r="DW374" s="3"/>
+    </row>
+    <row r="375" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL375" s="2"/>
+      <c r="DM375" s="2"/>
+      <c r="DV375" s="3"/>
+      <c r="DW375" s="3"/>
+    </row>
+    <row r="376" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL376" s="2"/>
+      <c r="DM376" s="2"/>
+      <c r="DV376" s="3"/>
+      <c r="DW376" s="3"/>
+      <c r="DX376" s="3"/>
+      <c r="DY376" s="3"/>
+      <c r="DZ376" s="3"/>
+      <c r="EA376" s="3"/>
+    </row>
+    <row r="377" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL377" s="2"/>
+      <c r="DM377" s="2"/>
+      <c r="DV377" s="3"/>
+      <c r="DW377" s="3"/>
+      <c r="DX377" s="3"/>
+      <c r="DY377" s="3"/>
+      <c r="DZ377" s="3"/>
+      <c r="EA377" s="3"/>
+    </row>
+    <row r="378" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL378" s="2"/>
+      <c r="DM378" s="2"/>
+      <c r="DV378" s="3"/>
+      <c r="DW378" s="3"/>
+      <c r="DX378" s="3"/>
+      <c r="DY378" s="3"/>
+      <c r="DZ378" s="3"/>
+      <c r="EA378" s="3"/>
+    </row>
+    <row r="379" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL379" s="2"/>
+      <c r="DM379" s="2"/>
+      <c r="DN379" s="2"/>
+      <c r="DO379" s="2"/>
+      <c r="DP379" s="2"/>
+      <c r="DQ379" s="2"/>
+    </row>
+    <row r="380" spans="114:131" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DL380" s="2"/>
+      <c r="DM380" s="2"/>
+      <c r="DN380" s="2"/>
+      <c r="DO380" s="2"/>
+      <c r="DP380" s="2"/>
+      <c r="DQ380" s="2"/>
+    </row>
+    <row r="381" spans="114:131" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7439,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB2C8EE-B90D-48B5-9310-C4F7F847BDA6}">
   <dimension ref="B1:AU41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="AP37" sqref="AP37"/>
+    <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="AG45" sqref="AG45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/goose pixel.xlsx
+++ b/goose pixel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\cpe223-goose-run\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD495F5-BF29-428E-B039-D58D8156C70E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01E9304-A19D-41F6-B842-DA74AD7AD0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{E86644CB-AB6E-49D3-81AD-59B0EC0CDCB0}"/>
   </bookViews>
@@ -1813,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3CC8D4-6395-40F0-BB08-2DC28716AF46}">
   <dimension ref="B2:DT290"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -32128,8 +32128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD9F43E-4B4F-4D97-8DAA-42CE6A9C4E8A}">
   <dimension ref="A1:FF155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="DK113" sqref="DK113"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="EE45" sqref="EE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -36879,6 +36879,22 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
+      <c r="AS81" s="6"/>
+      <c r="AT81" s="6"/>
+      <c r="AU81" s="6"/>
+      <c r="AV81" s="6"/>
+      <c r="AW81" s="6"/>
+      <c r="AX81" s="6"/>
+      <c r="AY81" s="6"/>
+      <c r="AZ81" s="6"/>
+      <c r="BA81" s="6"/>
+      <c r="BB81" s="6"/>
+      <c r="BC81" s="6"/>
+      <c r="BD81" s="6"/>
+      <c r="BE81" s="6"/>
+      <c r="BF81" s="6"/>
+      <c r="BG81" s="6"/>
+      <c r="BH81" s="6"/>
       <c r="DB81" s="4"/>
       <c r="DC81" s="4"/>
     </row>
@@ -36908,6 +36924,36 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
+      <c r="AN82" s="6"/>
+      <c r="AO82" s="6"/>
+      <c r="AP82" s="6"/>
+      <c r="AQ82" s="6"/>
+      <c r="AR82" s="6"/>
+      <c r="AS82" s="6"/>
+      <c r="AT82" s="6"/>
+      <c r="AU82" s="6"/>
+      <c r="AV82" s="6"/>
+      <c r="AW82" s="6"/>
+      <c r="AX82" s="6"/>
+      <c r="AY82" s="6"/>
+      <c r="AZ82" s="6"/>
+      <c r="BA82" s="6"/>
+      <c r="BB82" s="6"/>
+      <c r="BC82" s="6"/>
+      <c r="BD82" s="6"/>
+      <c r="BE82" s="6"/>
+      <c r="BF82" s="6"/>
+      <c r="BG82" s="6"/>
+      <c r="BH82" s="6"/>
+      <c r="BI82" s="6"/>
+      <c r="BJ82" s="6"/>
+      <c r="BK82" s="6"/>
+      <c r="BL82" s="6"/>
+      <c r="BM82" s="6"/>
+      <c r="BN82" s="6"/>
+      <c r="BO82" s="6"/>
+      <c r="BP82" s="6"/>
+      <c r="BQ82" s="6"/>
       <c r="DA82" s="4"/>
       <c r="DB82" s="4"/>
       <c r="DC82" s="4"/>
@@ -36938,6 +36984,47 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="6"/>
+      <c r="AN83" s="6"/>
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="6"/>
+      <c r="AQ83" s="6"/>
+      <c r="AR83" s="6"/>
+      <c r="AS83" s="6"/>
+      <c r="AT83" s="6"/>
+      <c r="AU83" s="6"/>
+      <c r="AV83" s="6"/>
+      <c r="AW83" s="6"/>
+      <c r="AX83" s="6"/>
+      <c r="AY83" s="6"/>
+      <c r="AZ83" s="6"/>
+      <c r="BA83" s="6"/>
+      <c r="BB83" s="6"/>
+      <c r="BC83" s="6"/>
+      <c r="BD83" s="6"/>
+      <c r="BE83" s="6"/>
+      <c r="BF83" s="6"/>
+      <c r="BG83" s="6"/>
+      <c r="BH83" s="6"/>
+      <c r="BI83" s="6"/>
+      <c r="BJ83" s="6"/>
+      <c r="BK83" s="6"/>
+      <c r="BL83" s="6"/>
+      <c r="BM83" s="6"/>
+      <c r="BN83" s="6"/>
+      <c r="BO83" s="6"/>
+      <c r="BP83" s="6"/>
+      <c r="BQ83" s="6"/>
+      <c r="BR83" s="6"/>
+      <c r="BS83" s="6"/>
+      <c r="BT83" s="6"/>
+      <c r="BU83" s="6"/>
+      <c r="BV83" s="6"/>
+      <c r="BW83" s="6"/>
+      <c r="BX83" s="6"/>
       <c r="CZ83" s="6"/>
       <c r="DA83" s="4"/>
       <c r="DB83" s="4"/>
@@ -36969,6 +37056,58 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
+      <c r="AF84" s="6"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="6"/>
+      <c r="AI84" s="6"/>
+      <c r="AJ84" s="6"/>
+      <c r="AK84" s="6"/>
+      <c r="AL84" s="6"/>
+      <c r="AM84" s="6"/>
+      <c r="AN84" s="6"/>
+      <c r="AO84" s="6"/>
+      <c r="AP84" s="6"/>
+      <c r="AQ84" s="6"/>
+      <c r="AR84" s="6"/>
+      <c r="AS84" s="6"/>
+      <c r="AT84" s="6"/>
+      <c r="AU84" s="6"/>
+      <c r="AV84" s="6"/>
+      <c r="AW84" s="6"/>
+      <c r="AX84" s="6"/>
+      <c r="AY84" s="6"/>
+      <c r="AZ84" s="6"/>
+      <c r="BA84" s="6"/>
+      <c r="BB84" s="6"/>
+      <c r="BC84" s="6"/>
+      <c r="BD84" s="6"/>
+      <c r="BE84" s="6"/>
+      <c r="BF84" s="6"/>
+      <c r="BG84" s="6"/>
+      <c r="BH84" s="6"/>
+      <c r="BI84" s="6"/>
+      <c r="BJ84" s="6"/>
+      <c r="BK84" s="6"/>
+      <c r="BL84" s="6"/>
+      <c r="BM84" s="6"/>
+      <c r="BN84" s="6"/>
+      <c r="BO84" s="6"/>
+      <c r="BP84" s="6"/>
+      <c r="BQ84" s="6"/>
+      <c r="BR84" s="6"/>
+      <c r="BS84" s="6"/>
+      <c r="BT84" s="6"/>
+      <c r="BU84" s="6"/>
+      <c r="BV84" s="6"/>
+      <c r="BW84" s="6"/>
+      <c r="BX84" s="6"/>
+      <c r="BY84" s="6"/>
+      <c r="BZ84" s="6"/>
+      <c r="CA84" s="6"/>
+      <c r="CB84" s="6"/>
+      <c r="CC84" s="6"/>
+      <c r="CD84" s="6"/>
+      <c r="CE84" s="6"/>
       <c r="CX84" s="6"/>
       <c r="CY84" s="6"/>
       <c r="CZ84" s="6"/>
@@ -37002,6 +37141,65 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="6"/>
+      <c r="AJ85" s="6"/>
+      <c r="AK85" s="6"/>
+      <c r="AL85" s="6"/>
+      <c r="AM85" s="6"/>
+      <c r="AN85" s="6"/>
+      <c r="AO85" s="6"/>
+      <c r="AP85" s="6"/>
+      <c r="AQ85" s="6"/>
+      <c r="AR85" s="6"/>
+      <c r="AS85" s="6"/>
+      <c r="AT85" s="6"/>
+      <c r="AU85" s="6"/>
+      <c r="AV85" s="6"/>
+      <c r="AW85" s="6"/>
+      <c r="AX85" s="6"/>
+      <c r="AY85" s="6"/>
+      <c r="AZ85" s="6"/>
+      <c r="BA85" s="6"/>
+      <c r="BB85" s="6"/>
+      <c r="BC85" s="6"/>
+      <c r="BD85" s="6"/>
+      <c r="BE85" s="6"/>
+      <c r="BF85" s="6"/>
+      <c r="BG85" s="6"/>
+      <c r="BH85" s="6"/>
+      <c r="BI85" s="6"/>
+      <c r="BJ85" s="6"/>
+      <c r="BK85" s="6"/>
+      <c r="BL85" s="6"/>
+      <c r="BM85" s="6"/>
+      <c r="BN85" s="6"/>
+      <c r="BO85" s="6"/>
+      <c r="BP85" s="6"/>
+      <c r="BQ85" s="6"/>
+      <c r="BR85" s="6"/>
+      <c r="BS85" s="6"/>
+      <c r="BT85" s="6"/>
+      <c r="BU85" s="6"/>
+      <c r="BV85" s="6"/>
+      <c r="BW85" s="6"/>
+      <c r="BX85" s="6"/>
+      <c r="BY85" s="6"/>
+      <c r="BZ85" s="6"/>
+      <c r="CA85" s="6"/>
+      <c r="CB85" s="6"/>
+      <c r="CC85" s="6"/>
+      <c r="CD85" s="6"/>
+      <c r="CE85" s="6"/>
+      <c r="CF85" s="6"/>
+      <c r="CG85" s="6"/>
+      <c r="CH85" s="6"/>
+      <c r="CI85" s="6"/>
       <c r="CX85" s="6"/>
       <c r="CY85" s="6"/>
       <c r="CZ85" s="6"/>
@@ -37035,6 +37233,71 @@
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+      <c r="AF86" s="6"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="6"/>
+      <c r="AI86" s="6"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="6"/>
+      <c r="AL86" s="6"/>
+      <c r="AM86" s="6"/>
+      <c r="AN86" s="6"/>
+      <c r="AO86" s="6"/>
+      <c r="AP86" s="6"/>
+      <c r="AQ86" s="6"/>
+      <c r="AR86" s="6"/>
+      <c r="AS86" s="6"/>
+      <c r="AT86" s="6"/>
+      <c r="AU86" s="6"/>
+      <c r="AV86" s="6"/>
+      <c r="AW86" s="6"/>
+      <c r="AX86" s="6"/>
+      <c r="AY86" s="6"/>
+      <c r="AZ86" s="6"/>
+      <c r="BA86" s="6"/>
+      <c r="BB86" s="6"/>
+      <c r="BC86" s="6"/>
+      <c r="BD86" s="6"/>
+      <c r="BE86" s="6"/>
+      <c r="BF86" s="6"/>
+      <c r="BG86" s="6"/>
+      <c r="BH86" s="6"/>
+      <c r="BI86" s="6"/>
+      <c r="BJ86" s="6"/>
+      <c r="BK86" s="6"/>
+      <c r="BL86" s="6"/>
+      <c r="BM86" s="6"/>
+      <c r="BN86" s="6"/>
+      <c r="BO86" s="6"/>
+      <c r="BP86" s="6"/>
+      <c r="BQ86" s="6"/>
+      <c r="BR86" s="6"/>
+      <c r="BS86" s="6"/>
+      <c r="BT86" s="6"/>
+      <c r="BU86" s="6"/>
+      <c r="BV86" s="6"/>
+      <c r="BW86" s="6"/>
+      <c r="BX86" s="6"/>
+      <c r="BY86" s="6"/>
+      <c r="BZ86" s="6"/>
+      <c r="CA86" s="6"/>
+      <c r="CB86" s="6"/>
+      <c r="CC86" s="6"/>
+      <c r="CD86" s="6"/>
+      <c r="CE86" s="6"/>
+      <c r="CF86" s="6"/>
+      <c r="CG86" s="6"/>
+      <c r="CH86" s="6"/>
+      <c r="CI86" s="6"/>
+      <c r="CJ86" s="6"/>
+      <c r="CK86" s="6"/>
+      <c r="CL86" s="5"/>
+      <c r="CM86" s="5"/>
       <c r="CV86" s="6"/>
       <c r="CW86" s="6"/>
       <c r="CX86" s="6"/>
@@ -37070,6 +37333,77 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="6"/>
+      <c r="AM87" s="6"/>
+      <c r="AN87" s="6"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="6"/>
+      <c r="AQ87" s="6"/>
+      <c r="AR87" s="6"/>
+      <c r="AS87" s="6"/>
+      <c r="AT87" s="6"/>
+      <c r="AU87" s="6"/>
+      <c r="AV87" s="6"/>
+      <c r="AW87" s="6"/>
+      <c r="AX87" s="6"/>
+      <c r="AY87" s="6"/>
+      <c r="AZ87" s="6"/>
+      <c r="BA87" s="6"/>
+      <c r="BB87" s="6"/>
+      <c r="BC87" s="6"/>
+      <c r="BD87" s="6"/>
+      <c r="BE87" s="6"/>
+      <c r="BF87" s="6"/>
+      <c r="BG87" s="6"/>
+      <c r="BH87" s="6"/>
+      <c r="BI87" s="6"/>
+      <c r="BJ87" s="6"/>
+      <c r="BK87" s="6"/>
+      <c r="BL87" s="6"/>
+      <c r="BM87" s="6"/>
+      <c r="BN87" s="6"/>
+      <c r="BO87" s="6"/>
+      <c r="BP87" s="6"/>
+      <c r="BQ87" s="6"/>
+      <c r="BR87" s="6"/>
+      <c r="BS87" s="6"/>
+      <c r="BT87" s="6"/>
+      <c r="BU87" s="6"/>
+      <c r="BV87" s="6"/>
+      <c r="BW87" s="6"/>
+      <c r="BX87" s="6"/>
+      <c r="BY87" s="6"/>
+      <c r="BZ87" s="6"/>
+      <c r="CA87" s="6"/>
+      <c r="CB87" s="6"/>
+      <c r="CC87" s="6"/>
+      <c r="CD87" s="6"/>
+      <c r="CE87" s="6"/>
+      <c r="CF87" s="6"/>
+      <c r="CG87" s="6"/>
+      <c r="CH87" s="6"/>
+      <c r="CI87" s="6"/>
+      <c r="CJ87" s="6"/>
+      <c r="CK87" s="6"/>
+      <c r="CL87" s="6"/>
+      <c r="CM87" s="6"/>
+      <c r="CN87" s="5"/>
+      <c r="CO87" s="5"/>
+      <c r="CP87" s="5"/>
+      <c r="CQ87" s="5"/>
       <c r="CT87" s="6"/>
       <c r="CU87" s="6"/>
       <c r="CV87" s="6"/>
@@ -37904,41 +38238,41 @@
       <c r="AO95" s="83"/>
       <c r="AP95" s="83"/>
       <c r="AQ95" s="83"/>
-      <c r="AR95" s="83"/>
-      <c r="AS95" s="83"/>
-      <c r="AT95" s="83"/>
-      <c r="AU95" s="83"/>
-      <c r="AV95" s="83"/>
-      <c r="AW95" s="83"/>
-      <c r="AX95" s="83"/>
-      <c r="AY95" s="83"/>
-      <c r="AZ95" s="83"/>
-      <c r="BA95" s="83"/>
-      <c r="BB95" s="83"/>
-      <c r="BC95" s="83"/>
-      <c r="BD95" s="83"/>
-      <c r="BE95" s="83"/>
-      <c r="BF95" s="83"/>
-      <c r="BG95" s="83"/>
-      <c r="BH95" s="83"/>
-      <c r="BI95" s="83"/>
-      <c r="BJ95" s="83"/>
-      <c r="BK95" s="83"/>
-      <c r="BL95" s="83"/>
-      <c r="BM95" s="83"/>
-      <c r="BN95" s="83"/>
-      <c r="BO95" s="83"/>
-      <c r="BP95" s="83"/>
-      <c r="BQ95" s="83"/>
-      <c r="BR95" s="83"/>
-      <c r="BS95" s="83"/>
-      <c r="BT95" s="83"/>
-      <c r="BU95" s="83"/>
-      <c r="BV95" s="83"/>
-      <c r="BW95" s="83"/>
-      <c r="BX95" s="83"/>
-      <c r="BY95" s="83"/>
-      <c r="BZ95" s="83"/>
+      <c r="AR95" s="4"/>
+      <c r="AS95" s="4"/>
+      <c r="AT95" s="4"/>
+      <c r="AU95" s="4"/>
+      <c r="AV95" s="4"/>
+      <c r="AW95" s="4"/>
+      <c r="AX95" s="4"/>
+      <c r="AY95" s="4"/>
+      <c r="AZ95" s="4"/>
+      <c r="BA95" s="4"/>
+      <c r="BB95" s="4"/>
+      <c r="BC95" s="4"/>
+      <c r="BD95" s="4"/>
+      <c r="BE95" s="4"/>
+      <c r="BF95" s="4"/>
+      <c r="BG95" s="4"/>
+      <c r="BH95" s="4"/>
+      <c r="BI95" s="4"/>
+      <c r="BJ95" s="4"/>
+      <c r="BK95" s="4"/>
+      <c r="BL95" s="4"/>
+      <c r="BM95" s="4"/>
+      <c r="BN95" s="4"/>
+      <c r="BO95" s="4"/>
+      <c r="BP95" s="4"/>
+      <c r="BQ95" s="4"/>
+      <c r="BR95" s="4"/>
+      <c r="BS95" s="4"/>
+      <c r="BT95" s="4"/>
+      <c r="BU95" s="4"/>
+      <c r="BV95" s="4"/>
+      <c r="BW95" s="4"/>
+      <c r="BX95" s="4"/>
+      <c r="BY95" s="4"/>
+      <c r="BZ95" s="4"/>
       <c r="CA95" s="83"/>
       <c r="CB95" s="83"/>
       <c r="CC95" s="83"/>
@@ -38015,41 +38349,41 @@
       <c r="AO96" s="83"/>
       <c r="AP96" s="83"/>
       <c r="AQ96" s="83"/>
-      <c r="AR96" s="83"/>
-      <c r="AS96" s="83"/>
-      <c r="AT96" s="83"/>
-      <c r="AU96" s="83"/>
-      <c r="AV96" s="83"/>
-      <c r="AW96" s="83"/>
-      <c r="AX96" s="83"/>
-      <c r="AY96" s="83"/>
-      <c r="AZ96" s="83"/>
-      <c r="BA96" s="83"/>
-      <c r="BB96" s="83"/>
-      <c r="BC96" s="83"/>
-      <c r="BD96" s="83"/>
-      <c r="BE96" s="83"/>
-      <c r="BF96" s="83"/>
-      <c r="BG96" s="83"/>
-      <c r="BH96" s="83"/>
-      <c r="BI96" s="83"/>
-      <c r="BJ96" s="83"/>
-      <c r="BK96" s="83"/>
-      <c r="BL96" s="83"/>
-      <c r="BM96" s="83"/>
-      <c r="BN96" s="83"/>
-      <c r="BO96" s="83"/>
-      <c r="BP96" s="83"/>
-      <c r="BQ96" s="83"/>
-      <c r="BR96" s="83"/>
-      <c r="BS96" s="83"/>
-      <c r="BT96" s="83"/>
-      <c r="BU96" s="83"/>
-      <c r="BV96" s="83"/>
-      <c r="BW96" s="83"/>
-      <c r="BX96" s="83"/>
-      <c r="BY96" s="83"/>
-      <c r="BZ96" s="83"/>
+      <c r="AR96" s="4"/>
+      <c r="AS96" s="4"/>
+      <c r="AT96" s="4"/>
+      <c r="AU96" s="4"/>
+      <c r="AV96" s="4"/>
+      <c r="AW96" s="4"/>
+      <c r="AX96" s="4"/>
+      <c r="AY96" s="4"/>
+      <c r="AZ96" s="4"/>
+      <c r="BA96" s="4"/>
+      <c r="BB96" s="4"/>
+      <c r="BC96" s="4"/>
+      <c r="BD96" s="4"/>
+      <c r="BE96" s="4"/>
+      <c r="BF96" s="4"/>
+      <c r="BG96" s="4"/>
+      <c r="BH96" s="4"/>
+      <c r="BI96" s="4"/>
+      <c r="BJ96" s="4"/>
+      <c r="BK96" s="4"/>
+      <c r="BL96" s="4"/>
+      <c r="BM96" s="4"/>
+      <c r="BN96" s="4"/>
+      <c r="BO96" s="4"/>
+      <c r="BP96" s="4"/>
+      <c r="BQ96" s="4"/>
+      <c r="BR96" s="4"/>
+      <c r="BS96" s="4"/>
+      <c r="BT96" s="4"/>
+      <c r="BU96" s="4"/>
+      <c r="BV96" s="4"/>
+      <c r="BW96" s="4"/>
+      <c r="BX96" s="4"/>
+      <c r="BY96" s="4"/>
+      <c r="BZ96" s="4"/>
       <c r="CA96" s="83"/>
       <c r="CB96" s="83"/>
       <c r="CC96" s="83"/>
@@ -38160,8 +38494,8 @@
       <c r="BW97" s="83"/>
       <c r="BX97" s="83"/>
       <c r="BY97" s="83"/>
-      <c r="BZ97" s="83"/>
-      <c r="CA97" s="83"/>
+      <c r="BZ97" s="4"/>
+      <c r="CA97" s="4"/>
       <c r="CB97" s="83"/>
       <c r="CC97" s="83"/>
       <c r="CD97" s="83"/>
@@ -38271,8 +38605,8 @@
       <c r="BW98" s="83"/>
       <c r="BX98" s="83"/>
       <c r="BY98" s="83"/>
-      <c r="BZ98" s="83"/>
-      <c r="CA98" s="83"/>
+      <c r="BZ98" s="4"/>
+      <c r="CA98" s="4"/>
       <c r="CB98" s="83"/>
       <c r="CC98" s="83"/>
       <c r="CD98" s="83"/>
@@ -38381,9 +38715,9 @@
       <c r="BV99" s="83"/>
       <c r="BW99" s="83"/>
       <c r="BX99" s="83"/>
-      <c r="BY99" s="83"/>
-      <c r="BZ99" s="83"/>
-      <c r="CA99" s="83"/>
+      <c r="BY99" s="4"/>
+      <c r="BZ99" s="4"/>
+      <c r="CA99" s="4"/>
       <c r="CB99" s="83"/>
       <c r="CC99" s="83"/>
       <c r="CD99" s="83"/>
@@ -38492,9 +38826,9 @@
       <c r="BV100" s="83"/>
       <c r="BW100" s="83"/>
       <c r="BX100" s="83"/>
-      <c r="BY100" s="83"/>
-      <c r="BZ100" s="83"/>
-      <c r="CA100" s="83"/>
+      <c r="BY100" s="4"/>
+      <c r="BZ100" s="4"/>
+      <c r="CA100" s="4"/>
       <c r="CB100" s="83"/>
       <c r="CC100" s="83"/>
       <c r="CD100" s="83"/>
@@ -38603,8 +38937,8 @@
       <c r="BV101" s="83"/>
       <c r="BW101" s="83"/>
       <c r="BX101" s="83"/>
-      <c r="BY101" s="83"/>
-      <c r="BZ101" s="83"/>
+      <c r="BY101" s="4"/>
+      <c r="BZ101" s="4"/>
       <c r="CA101" s="83"/>
       <c r="CB101" s="83"/>
       <c r="CC101" s="83"/>
@@ -38710,12 +39044,12 @@
       <c r="BR102" s="83"/>
       <c r="BS102" s="83"/>
       <c r="BT102" s="83"/>
-      <c r="BU102" s="83"/>
-      <c r="BV102" s="83"/>
-      <c r="BW102" s="83"/>
-      <c r="BX102" s="83"/>
-      <c r="BY102" s="83"/>
-      <c r="BZ102" s="83"/>
+      <c r="BU102" s="6"/>
+      <c r="BV102" s="4"/>
+      <c r="BW102" s="4"/>
+      <c r="BX102" s="4"/>
+      <c r="BY102" s="4"/>
+      <c r="BZ102" s="4"/>
       <c r="CA102" s="83"/>
       <c r="CB102" s="83"/>
       <c r="CC102" s="83"/>
@@ -38821,10 +39155,10 @@
       <c r="BR103" s="83"/>
       <c r="BS103" s="83"/>
       <c r="BT103" s="83"/>
-      <c r="BU103" s="83"/>
-      <c r="BV103" s="83"/>
-      <c r="BW103" s="83"/>
-      <c r="BX103" s="83"/>
+      <c r="BU103" s="6"/>
+      <c r="BV103" s="4"/>
+      <c r="BW103" s="4"/>
+      <c r="BX103" s="4"/>
       <c r="BY103" s="83"/>
       <c r="BZ103" s="83"/>
       <c r="CA103" s="83"/>
@@ -38932,9 +39266,9 @@
       <c r="BR104" s="83"/>
       <c r="BS104" s="83"/>
       <c r="BT104" s="83"/>
-      <c r="BU104" s="83"/>
-      <c r="BV104" s="83"/>
-      <c r="BW104" s="83"/>
+      <c r="BU104" s="6"/>
+      <c r="BV104" s="4"/>
+      <c r="BW104" s="4"/>
       <c r="BX104" s="83"/>
       <c r="BY104" s="83"/>
       <c r="BZ104" s="83"/>
@@ -39043,9 +39377,9 @@
       <c r="BR105" s="83"/>
       <c r="BS105" s="83"/>
       <c r="BT105" s="83"/>
-      <c r="BU105" s="83"/>
-      <c r="BV105" s="83"/>
-      <c r="BW105" s="83"/>
+      <c r="BU105" s="4"/>
+      <c r="BV105" s="4"/>
+      <c r="BW105" s="4"/>
       <c r="BX105" s="83"/>
       <c r="BY105" s="83"/>
       <c r="BZ105" s="83"/>
@@ -39154,9 +39488,9 @@
       <c r="BR106" s="83"/>
       <c r="BS106" s="83"/>
       <c r="BT106" s="83"/>
-      <c r="BU106" s="83"/>
-      <c r="BV106" s="83"/>
-      <c r="BW106" s="83"/>
+      <c r="BU106" s="4"/>
+      <c r="BV106" s="4"/>
+      <c r="BW106" s="4"/>
       <c r="BX106" s="83"/>
       <c r="BY106" s="83"/>
       <c r="BZ106" s="83"/>
@@ -39264,9 +39598,9 @@
       <c r="BQ107" s="83"/>
       <c r="BR107" s="83"/>
       <c r="BS107" s="83"/>
-      <c r="BT107" s="83"/>
-      <c r="BU107" s="83"/>
-      <c r="BV107" s="83"/>
+      <c r="BT107" s="4"/>
+      <c r="BU107" s="4"/>
+      <c r="BV107" s="4"/>
       <c r="BW107" s="83"/>
       <c r="BX107" s="83"/>
       <c r="BY107" s="83"/>
@@ -39374,10 +39708,10 @@
       <c r="BP108" s="83"/>
       <c r="BQ108" s="83"/>
       <c r="BR108" s="83"/>
-      <c r="BS108" s="83"/>
-      <c r="BT108" s="83"/>
-      <c r="BU108" s="83"/>
-      <c r="BV108" s="83"/>
+      <c r="BS108" s="4"/>
+      <c r="BT108" s="4"/>
+      <c r="BU108" s="4"/>
+      <c r="BV108" s="4"/>
       <c r="BW108" s="83"/>
       <c r="BX108" s="83"/>
       <c r="BY108" s="83"/>
@@ -39484,10 +39818,10 @@
       <c r="BO109" s="83"/>
       <c r="BP109" s="83"/>
       <c r="BQ109" s="83"/>
-      <c r="BR109" s="83"/>
-      <c r="BS109" s="83"/>
-      <c r="BT109" s="83"/>
-      <c r="BU109" s="83"/>
+      <c r="BR109" s="4"/>
+      <c r="BS109" s="4"/>
+      <c r="BT109" s="4"/>
+      <c r="BU109" s="4"/>
       <c r="BV109" s="83"/>
       <c r="BW109" s="83"/>
       <c r="BX109" s="83"/>
@@ -39594,10 +39928,10 @@
       <c r="BN110" s="83"/>
       <c r="BO110" s="83"/>
       <c r="BP110" s="83"/>
-      <c r="BQ110" s="83"/>
-      <c r="BR110" s="83"/>
-      <c r="BS110" s="83"/>
-      <c r="BT110" s="83"/>
+      <c r="BQ110" s="4"/>
+      <c r="BR110" s="4"/>
+      <c r="BS110" s="4"/>
+      <c r="BT110" s="4"/>
       <c r="BU110" s="83"/>
       <c r="BV110" s="83"/>
       <c r="BW110" s="83"/>
@@ -39706,8 +40040,8 @@
       <c r="BO111" s="83"/>
       <c r="BP111" s="83"/>
       <c r="BQ111" s="83"/>
-      <c r="BR111" s="83"/>
-      <c r="BS111" s="83"/>
+      <c r="BR111" s="4"/>
+      <c r="BS111" s="4"/>
       <c r="BT111" s="83"/>
       <c r="BU111" s="83"/>
       <c r="BV111" s="83"/>
@@ -39816,9 +40150,9 @@
       <c r="BN112" s="83"/>
       <c r="BO112" s="83"/>
       <c r="BP112" s="83"/>
-      <c r="BQ112" s="83"/>
-      <c r="BR112" s="83"/>
-      <c r="BS112" s="83"/>
+      <c r="BQ112" s="4"/>
+      <c r="BR112" s="4"/>
+      <c r="BS112" s="4"/>
       <c r="BT112" s="83"/>
       <c r="BU112" s="83"/>
       <c r="BV112" s="83"/>
@@ -39926,10 +40260,10 @@
       <c r="BM113" s="83"/>
       <c r="BN113" s="83"/>
       <c r="BO113" s="83"/>
-      <c r="BP113" s="83"/>
-      <c r="BQ113" s="83"/>
-      <c r="BR113" s="83"/>
-      <c r="BS113" s="83"/>
+      <c r="BP113" s="4"/>
+      <c r="BQ113" s="4"/>
+      <c r="BR113" s="4"/>
+      <c r="BS113" s="4"/>
       <c r="BT113" s="83"/>
       <c r="BU113" s="83"/>
       <c r="BV113" s="83"/>
@@ -40036,11 +40370,11 @@
       <c r="BL114" s="83"/>
       <c r="BM114" s="83"/>
       <c r="BN114" s="83"/>
-      <c r="BO114" s="83"/>
-      <c r="BP114" s="83"/>
-      <c r="BQ114" s="83"/>
-      <c r="BR114" s="83"/>
-      <c r="BS114" s="83"/>
+      <c r="BO114" s="4"/>
+      <c r="BP114" s="4"/>
+      <c r="BQ114" s="4"/>
+      <c r="BR114" s="4"/>
+      <c r="BS114" s="6"/>
       <c r="BT114" s="83"/>
       <c r="BU114" s="83"/>
       <c r="BV114" s="83"/>
@@ -40145,10 +40479,10 @@
       <c r="BJ115" s="83"/>
       <c r="BK115" s="83"/>
       <c r="BL115" s="83"/>
-      <c r="BM115" s="83"/>
-      <c r="BN115" s="83"/>
-      <c r="BO115" s="83"/>
-      <c r="BP115" s="83"/>
+      <c r="BM115" s="4"/>
+      <c r="BN115" s="4"/>
+      <c r="BO115" s="4"/>
+      <c r="BP115" s="4"/>
       <c r="BQ115" s="83"/>
       <c r="BR115" s="83"/>
       <c r="BS115" s="83"/>
@@ -40254,10 +40588,10 @@
       <c r="BH116" s="83"/>
       <c r="BI116" s="83"/>
       <c r="BJ116" s="83"/>
-      <c r="BK116" s="83"/>
-      <c r="BL116" s="83"/>
-      <c r="BM116" s="83"/>
-      <c r="BN116" s="83"/>
+      <c r="BK116" s="4"/>
+      <c r="BL116" s="4"/>
+      <c r="BM116" s="4"/>
+      <c r="BN116" s="4"/>
       <c r="BO116" s="83"/>
       <c r="BP116" s="83"/>
       <c r="BQ116" s="83"/>
@@ -40363,10 +40697,10 @@
       <c r="BF117" s="83"/>
       <c r="BG117" s="83"/>
       <c r="BH117" s="83"/>
-      <c r="BI117" s="83"/>
-      <c r="BJ117" s="83"/>
-      <c r="BK117" s="83"/>
-      <c r="BL117" s="83"/>
+      <c r="BI117" s="4"/>
+      <c r="BJ117" s="4"/>
+      <c r="BK117" s="4"/>
+      <c r="BL117" s="4"/>
       <c r="BM117" s="83"/>
       <c r="BN117" s="83"/>
       <c r="BO117" s="83"/>
@@ -40473,9 +40807,9 @@
       <c r="BE118" s="83"/>
       <c r="BF118" s="83"/>
       <c r="BG118" s="83"/>
-      <c r="BH118" s="83"/>
-      <c r="BI118" s="83"/>
-      <c r="BJ118" s="83"/>
+      <c r="BH118" s="4"/>
+      <c r="BI118" s="4"/>
+      <c r="BJ118" s="4"/>
       <c r="BK118" s="83"/>
       <c r="BL118" s="83"/>
       <c r="BM118" s="83"/>
@@ -40583,8 +40917,8 @@
       <c r="BD119" s="83"/>
       <c r="BE119" s="83"/>
       <c r="BF119" s="83"/>
-      <c r="BG119" s="83"/>
-      <c r="BH119" s="83"/>
+      <c r="BG119" s="4"/>
+      <c r="BH119" s="4"/>
       <c r="BI119" s="83"/>
       <c r="BJ119" s="83"/>
       <c r="BK119" s="83"/>
@@ -40692,10 +41026,10 @@
       <c r="BB120" s="83"/>
       <c r="BC120" s="83"/>
       <c r="BD120" s="83"/>
-      <c r="BE120" s="83"/>
-      <c r="BF120" s="83"/>
-      <c r="BG120" s="83"/>
-      <c r="BH120" s="83"/>
+      <c r="BE120" s="4"/>
+      <c r="BF120" s="4"/>
+      <c r="BG120" s="4"/>
+      <c r="BH120" s="4"/>
       <c r="BI120" s="83"/>
       <c r="BJ120" s="83"/>
       <c r="BK120" s="83"/>
@@ -40800,11 +41134,11 @@
       <c r="AY121" s="83"/>
       <c r="AZ121" s="83"/>
       <c r="BA121" s="83"/>
-      <c r="BB121" s="83"/>
-      <c r="BC121" s="83"/>
-      <c r="BD121" s="83"/>
-      <c r="BE121" s="83"/>
-      <c r="BF121" s="83"/>
+      <c r="BB121" s="4"/>
+      <c r="BC121" s="4"/>
+      <c r="BD121" s="4"/>
+      <c r="BE121" s="4"/>
+      <c r="BF121" s="4"/>
       <c r="BG121" s="83"/>
       <c r="BH121" s="83"/>
       <c r="BI121" s="83"/>
@@ -40911,9 +41245,9 @@
       <c r="AY122" s="83"/>
       <c r="AZ122" s="83"/>
       <c r="BA122" s="83"/>
-      <c r="BB122" s="83"/>
-      <c r="BC122" s="83"/>
-      <c r="BD122" s="83"/>
+      <c r="BB122" s="4"/>
+      <c r="BC122" s="4"/>
+      <c r="BD122" s="4"/>
       <c r="BE122" s="83"/>
       <c r="BF122" s="83"/>
       <c r="BG122" s="83"/>
@@ -41019,10 +41353,10 @@
       <c r="AV123" s="83"/>
       <c r="AW123" s="83"/>
       <c r="AX123" s="83"/>
-      <c r="AY123" s="83"/>
-      <c r="AZ123" s="83"/>
-      <c r="BA123" s="83"/>
-      <c r="BB123" s="83"/>
+      <c r="AY123" s="4"/>
+      <c r="AZ123" s="4"/>
+      <c r="BA123" s="4"/>
+      <c r="BB123" s="4"/>
       <c r="BC123" s="83"/>
       <c r="BD123" s="83"/>
       <c r="BE123" s="83"/>
@@ -41126,14 +41460,14 @@
       <c r="AR124" s="83"/>
       <c r="AS124" s="83"/>
       <c r="AT124" s="83"/>
-      <c r="AU124" s="83"/>
-      <c r="AV124" s="83"/>
-      <c r="AW124" s="83"/>
-      <c r="AX124" s="83"/>
-      <c r="AY124" s="83"/>
-      <c r="AZ124" s="83"/>
-      <c r="BA124" s="83"/>
-      <c r="BB124" s="83"/>
+      <c r="AU124" s="4"/>
+      <c r="AV124" s="4"/>
+      <c r="AW124" s="4"/>
+      <c r="AX124" s="4"/>
+      <c r="AY124" s="4"/>
+      <c r="AZ124" s="4"/>
+      <c r="BA124" s="4"/>
+      <c r="BB124" s="4"/>
       <c r="BC124" s="83"/>
       <c r="BD124" s="83"/>
       <c r="BE124" s="83"/>
@@ -41228,20 +41562,20 @@
       <c r="AI125" s="83"/>
       <c r="AJ125" s="83"/>
       <c r="AK125" s="83"/>
-      <c r="AL125" s="83"/>
-      <c r="AM125" s="83"/>
-      <c r="AN125" s="83"/>
-      <c r="AO125" s="83"/>
-      <c r="AP125" s="83"/>
-      <c r="AQ125" s="83"/>
-      <c r="AR125" s="83"/>
-      <c r="AS125" s="83"/>
-      <c r="AT125" s="83"/>
-      <c r="AU125" s="83"/>
-      <c r="AV125" s="83"/>
-      <c r="AW125" s="83"/>
-      <c r="AX125" s="83"/>
-      <c r="AY125" s="83"/>
+      <c r="AL125" s="4"/>
+      <c r="AM125" s="4"/>
+      <c r="AN125" s="4"/>
+      <c r="AO125" s="4"/>
+      <c r="AP125" s="4"/>
+      <c r="AQ125" s="4"/>
+      <c r="AR125" s="4"/>
+      <c r="AS125" s="4"/>
+      <c r="AT125" s="4"/>
+      <c r="AU125" s="4"/>
+      <c r="AV125" s="4"/>
+      <c r="AW125" s="4"/>
+      <c r="AX125" s="4"/>
+      <c r="AY125" s="4"/>
       <c r="AZ125" s="83"/>
       <c r="BA125" s="83"/>
       <c r="BB125" s="83"/>
@@ -41339,16 +41673,16 @@
       <c r="AI126" s="83"/>
       <c r="AJ126" s="83"/>
       <c r="AK126" s="83"/>
-      <c r="AL126" s="83"/>
-      <c r="AM126" s="83"/>
-      <c r="AN126" s="83"/>
-      <c r="AO126" s="83"/>
-      <c r="AP126" s="83"/>
-      <c r="AQ126" s="83"/>
-      <c r="AR126" s="83"/>
-      <c r="AS126" s="83"/>
-      <c r="AT126" s="83"/>
-      <c r="AU126" s="83"/>
+      <c r="AL126" s="4"/>
+      <c r="AM126" s="4"/>
+      <c r="AN126" s="4"/>
+      <c r="AO126" s="4"/>
+      <c r="AP126" s="4"/>
+      <c r="AQ126" s="4"/>
+      <c r="AR126" s="4"/>
+      <c r="AS126" s="4"/>
+      <c r="AT126" s="4"/>
+      <c r="AU126" s="4"/>
       <c r="AV126" s="83"/>
       <c r="AW126" s="83"/>
       <c r="AX126" s="83"/>
